--- a/biology/Zoologie/Dolichoderus_balticus/Dolichoderus_balticus.xlsx
+++ b/biology/Zoologie/Dolichoderus_balticus/Dolichoderus_balticus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypoclinea baltica
 Dolichoderus balticus est une espèce fossile de fourmis de la sous-famille des Dolichoderinae, de la tribu des Dolichoderini dans le genre Dolichoderus.
@@ -512,22 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Dolichoderus affectus est décrite en 1868 par l'entomologiste autrichien Gustav Mayr (1830-1908) sous le protonyme Hypoclinea baltica[1],[2]. 
-Fossiles
-Selon Paleobiology Database en 2023, le nombre de collection de fossiles référencées est de neuf[2] :
-Oligocène de France, une collection du Chattien, et d'Aix-en-Provence décrite en 1937 par Nicolas Théobald[3]
-Éocène, deux collections de Pologne, six collections de Russie dont cinq de Kaliningrad[2]
-Renommage
-En 1937, le paléontologue français Nicolas Théobald (1903-1981) renomme cette espèce Dolichoderus balticus en même temps qu'il ajoute un spécimen fossile d'Aix-en-Provence[3],[2].
-Confirmation du genre Dolichoderus
-L'espèce Dolichoderus balticus est confirmée dans le genre Dolichoderus en 2002 par Gennady Mikhaïlovitch Dlussky (d) (1938-)[4],[2]. 
-Citations
-L'espèce Hypoclinea baltica est encore citée en 1987 par Ute Spahr (d)[5],[2].
-Le nouveau nom Dolichoderus balticus est déjà cité en 1878 par l'entomologiste suisse Auguste Forel (1848-1931) dans le Bulletin de la Société vaudoise des sciences naturelles[6] et en 1914 par l'entomologiste américain William Morton Wheeler (1865-1937)[7], selon Nicolas Théobald dans sa thèse de 1937[3],[2].
-Étymologie
-L'épithète spécifique latine balticus signifie « baltique », en rapport avec la découverte des fossiles dans l'ambre de la Baltique.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Dolichoderus affectus est décrite en 1868 par l'entomologiste autrichien Gustav Mayr (1830-1908) sous le protonyme Hypoclinea baltica,. 
 </t>
         </is>
       </c>
@@ -553,17 +554,246 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2023, le nombre de collection de fossiles référencées est de neuf :
+Oligocène de France, une collection du Chattien, et d'Aix-en-Provence décrite en 1937 par Nicolas Théobald
+Éocène, deux collections de Pologne, six collections de Russie dont cinq de Kaliningrad</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dolichoderus_balticus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dolichoderus_balticus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Renommage</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1937, le paléontologue français Nicolas Théobald (1903-1981) renomme cette espèce Dolichoderus balticus en même temps qu'il ajoute un spécimen fossile d'Aix-en-Provence,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dolichoderus_balticus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dolichoderus_balticus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Confirmation du genre Dolichoderus</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Dolichoderus balticus est confirmée dans le genre Dolichoderus en 2002 par Gennady Mikhaïlovitch Dlussky (d) (1938-),. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dolichoderus_balticus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dolichoderus_balticus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Citations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Hypoclinea baltica est encore citée en 1987 par Ute Spahr (d),.
+Le nouveau nom Dolichoderus balticus est déjà cité en 1878 par l'entomologiste suisse Auguste Forel (1848-1931) dans le Bulletin de la Société vaudoise des sciences naturelles et en 1914 par l'entomologiste américain William Morton Wheeler (1865-1937), selon Nicolas Théobald dans sa thèse de 1937,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dolichoderus_balticus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dolichoderus_balticus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique latine balticus signifie « baltique », en rapport avec la découverte des fossiles dans l'ambre de la Baltique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dolichoderus_balticus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dolichoderus_balticus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[3],[note 1] : 
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 1] : 
 « Echant. A34 Inst Géol. Lyon.
-Un échantillon assez bien conservé, montrant la tête, le thorax, l'abdomen et des fragments de pattes. Les antennes sont encore bien visibles, les tibias portent une épine à l'extrémité. »[3].
-Affinités
-« La détermination nous semble très satisfaisante. D. balticus a été décrit de l'ambre de la Baltique. »[3].
+Un échantillon assez bien conservé, montrant la tête, le thorax, l'abdomen et des fragments de pattes. Les antennes sont encore bien visibles, les tibias portent une épine à l'extrémité. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dolichoderus_balticus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dolichoderus_balticus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« La détermination nous semble très satisfaisante. D. balticus a été décrit de l'ambre de la Baltique. ».
 </t>
         </is>
       </c>
